--- a/docs/PTA2_DDC_40/PTA1_R5_BDDC_30.07.24v_output.xlsx
+++ b/docs/PTA2_DDC_40/PTA1_R5_BDDC_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,900 +505,1069 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731368047.6686883</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731368048.8775723</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368047.6686883.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368048.8775723.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.36</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731368049.007658</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731368050.5821664</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368049.007658.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368050.5821664.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>291.15</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>291.23</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.08000000000004093</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731368050.5961652</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731368050.6386204</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368050.5961652.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368050.6386204.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>291.23</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>291.24</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731368050.6942623</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731368050.7937546</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368050.6942623.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368050.7937546.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>291.05</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>291.16</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731368052.2205565</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731368053.6661131</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368052.2205565.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368053.6661131.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>291.01</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>290.6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.4099999999999682</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731368053.8705447</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731368054.069944</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368053.8705447.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368054.069944.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>290.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>290.66</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731368054.647872</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731368054.647872.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731368054.647872.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>290.22</v>
       </c>
-      <c r="J9" t="n">
-        <v>290.22</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="L9" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.82000000000005</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731368058.8383775</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731368060.2114246</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368058.8383775.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368060.2114246.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.53</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>132.61</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731368060.6286867</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731368061.2225041</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368060.6286867.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368061.2225041.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>132.31</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>132.41</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731368062.4697676</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731368062.601951</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368062.4697676.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368062.601951.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>132.24</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>132.37</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731368063.9986668</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731368063.9986668.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731368063.9986668.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>132.28</v>
       </c>
-      <c r="J13" t="n">
-        <v>132.28</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>132.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731368065.5817072</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731368065.7255967</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368065.5817072.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368065.7255967.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6795</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6801</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731368066.2587197</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731368066.3673065</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368066.2587197.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368066.3673065.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6800</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731368066.5953002</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731368068.0219426</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368066.5953002.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368068.0219426.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6803</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6810.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-7.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731368068.0918837</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731368069.6250787</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368068.0918837.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368069.6250787.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6804.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6805.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731368069.639054</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731368069.9131355</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368069.639054.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368069.9131355.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6805.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6803</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731368070.0610683</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731368070.4767628</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368070.0610683.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368070.4767628.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6806.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6803.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731368070.8492634</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731368070.8492634.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731368070.8492634.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6802.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6802.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1391,334 +1575,397 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731368072.428288</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731368072.819653</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368072.428288.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368072.819653.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>510.85</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>510.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731368073.356235</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731368073.5047984</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368073.356235.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368073.5047984.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>510.15</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>510.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.6500000000000341</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731368074.7270474</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731368076.3404903</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368074.7270474.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368076.3404903.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>510.85</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>512.25</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-1.399999999999977</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731368076.5639193</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731368077.783338</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368076.5639193.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368077.783338.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>511.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>512.35</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731368078.3590157</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731368079.2158718</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368078.3590157.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368079.2158718.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>511.75</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>511.7</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731368079.6772704</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731368079.6772704.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731368079.6772704.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>511</v>
       </c>
-      <c r="J26" t="n">
-        <v>511</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>511.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731368080.9405184</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731368082.0365946</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368080.9405184.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368082.0365946.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1045.4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1045.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1726,906 +1973,1077 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731368082.196273</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731368083.7193954</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368082.196273.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368083.7193954.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1047.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1046.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731368083.7343576</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731368084.714749</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368083.7343576.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368084.714749.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1046.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731368085.294286</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731368086.5082862</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368085.294286.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368086.5082862.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1044.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1044.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.1999999999998181</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731368087.0444345</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731368087.0444345.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731368087.0444345.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1046.4</v>
       </c>
-      <c r="J31" t="n">
-        <v>1046.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>1047.2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731368088.4273007</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731368089.1489546</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368088.4273007.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368089.1489546.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>127.26</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>127.42</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731368089.3638804</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731368091.1379075</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368089.3638804.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368091.1379075.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>127.44</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>127.5</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731368091.1797953</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731368091.8365054</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368091.1797953.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368091.8365054.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>127.38</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>127.62</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731368093.804683</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731368093.804683.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731368093.804683.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>127.36</v>
       </c>
-      <c r="J35" t="n">
-        <v>127.36</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731368095.4957948</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731368095.955048</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368095.4957948.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368095.955048.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>166.16</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>166.02</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731368096.4208314</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731368096.7599826</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368096.4208314.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368096.7599826.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>166.24</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>166.08</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731368096.944572</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731368097.795579</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368096.944572.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368097.795579.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>166.3</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>166.28</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731368099.0340703</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731368099.0340703.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731368099.0340703.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>166.14</v>
       </c>
-      <c r="J39" t="n">
-        <v>166.14</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
+      <c r="L39" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.4599999999999795</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731368100.6879895</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731368101.1994305</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368100.6879895.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368101.1994305.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>51.675</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>51.74</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.06500000000000483</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731368102.7791958</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731368102.8448658</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368102.7791958.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368102.8448658.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>51.58</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>51.655</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731368102.989474</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731368104.2729561</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368102.989474.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368104.2729561.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>51.665</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>51.565</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731368104.3150873</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731368105.766143</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368104.3150873.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368105.766143.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>51.555</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>51.5</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.05499999999999972</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731368106.5842378</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731368107.010302</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368106.5842378.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368107.010302.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>51.45</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>51.445</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731368107.6789622</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731368109.4596312</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368107.6789622.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368109.4596312.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1420.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.1999999999998181</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731368109.551208</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731368111.3938324</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368109.551208.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368111.3938324.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1421.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1421.2</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2633,424 +3051,505 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731368111.488941</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731368111.675745</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368111.488941.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368111.675745.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1421</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1421.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731368111.9326632</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731368115.3594763</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368111.9326632.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368115.3594763.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1420.4</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1420</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731368115.6562781</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731368115.8394337</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368115.6562781.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368115.8394337.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>60.7</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>60.63</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731368116.3033</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731368116.4535708</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368116.3033.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368116.4535708.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>60.44</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>60.53</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731368118.2481647</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731368118.97456</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368118.2481647.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368118.97456.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>60.66</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>60.59</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731368120.1442578</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731368121.2195644</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368120.1442578.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368121.2195644.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>60.51</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>60.55</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731368121.5034034</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731368121.7708008</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368121.5034034.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368121.7708008.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>60.61</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>60.49</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731368122.0258768</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731368122.0258768.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731368122.0258768.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>60.44</v>
       </c>
-      <c r="J54" t="n">
-        <v>60.44</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="L54" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.03999999999999915</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731368123.8304193</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731368123.8304193.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731368123.8304193.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>56.9</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>56.9</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3058,1470 +3557,1749 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731368124.1370602</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731368124.2086737</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368124.1370602.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368124.2086737.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>141.24</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>141.14</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731368124.341724</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731368124.703768</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368124.341724.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368124.703768.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>141.22</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>141.14</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731368124.7187188</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731368124.94715</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368124.7187188.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368124.94715.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>141.14</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>141.22</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731368124.962111</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731368127.5596874</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368124.962111.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368127.5596874.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>141.22</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>141.36</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.1400000000000148</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731368128.3484166</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731368128.3484166.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731368128.3484166.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>140.98</v>
       </c>
-      <c r="J60" t="n">
-        <v>140.98</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="L60" t="n">
+        <v>140.78</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731368131.0158167</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731368131.5669293</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731368131.0158167.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731368131.5669293.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>54.07</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>53.94</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731368132.7967808</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731368133.4304473</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731368132.7967808.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731368133.4304473.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>54.03</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>54.05</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731368134.534075</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731368135.1861446</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731368134.534075.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731368135.1861446.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>53.93</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>53.97</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731368138.5565946</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731368138.5565946.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731368138.5565946.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>53.57</v>
       </c>
-      <c r="J64" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731368139.4921508</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731368140.6246102</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368139.4921508.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368140.6246102.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>375.33</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>375.16</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1699999999999591</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731368142.6624682</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731368143.2114418</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368142.6624682.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368143.2114418.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>374.55</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>375.02</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.4699999999999704</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731368144.2144778</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731368144.2144778.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731368144.2144778.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>374</v>
       </c>
-      <c r="J67" t="n">
-        <v>374</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
+      <c r="L67" t="n">
+        <v>371.92</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-2.079999999999984</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731368147.5630538</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731368147.6855428</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731368147.5630538.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731368147.6855428.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.09718</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.09742000000000001</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.0002400000000000041</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731368148.9131894</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731368148.954207</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731368148.9131894.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731368148.954207.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>3024.6</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>3022.7</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1.900000000000091</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731368150.0256605</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731368150.699752</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731368150.0256605.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731368150.699752.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>3021.35</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>3023.95</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731368151.2139184</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731368152.6248677</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731368151.2139184.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731368152.6248677.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>3024.9</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>3019.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>5.099999999999909</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731368152.640825</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731368154.2765794</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731368152.640825.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731368154.2765794.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>3019.8</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>3020.75</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.9499999999998181</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731368154.7946541</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731368154.7946541.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731368154.7946541.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>3018.55</v>
       </c>
-      <c r="J73" t="n">
-        <v>3018.55</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
+      <c r="L73" t="n">
+        <v>3018.15</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731368156.0144947</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731368157.3305304</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731368156.0144947.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731368157.3305304.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>34.56</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>34.51</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731368158.2588196</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731368160.0171785</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731368158.2588196.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731368160.0171785.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>34.595</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>34.525</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731368160.7540195</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731368162.456902</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731368160.7540195.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731368162.456902.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>34.545</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>34.465</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731368162.7052605</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731368162.7052605.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731368162.7052605.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>34.495</v>
       </c>
-      <c r="J77" t="n">
-        <v>34.495</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
+      <c r="L77" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.03500000000000369</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731368163.575499</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731368164.7376578</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368163.575499.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368164.7376578.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>640.6</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>640.5</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731368165.1388607</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731368166.075251</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368165.1388607.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368166.075251.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>640</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>640.7</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.7000000000000455</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731368166.0912058</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731368166.2367392</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368166.0912058.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368166.2367392.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>640.7</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>640.3</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731368166.3011355</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731368166.6281133</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368166.3011355.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368166.6281133.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>640.1</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>640.5</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731368167.1486819</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731368168.0815754</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368167.1486819.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368168.0815754.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>640</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>640.3</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.2999999999999545</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731368168.230983</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731368168.4342372</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368168.230983.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368168.4342372.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>640.5</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>640.1</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731368168.4753191</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731368169.1096838</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368168.4753191.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368169.1096838.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>640.6</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>640.1</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731368169.1501741</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731368169.2421556</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368169.1501741.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731368169.2421556.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>640</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>640.5</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731368170.2386796</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731368170.2386796.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731368170.2386796.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>640.6</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>640.6</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4536,7 +5314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4565,6 +5343,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4581,6 +5369,12 @@
       <c r="D2" t="n">
         <v>0.3666666666666742</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4589,13 +5383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2700000000000955</v>
+        <v>-0.5499999999999545</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03857142857144221</v>
+        <v>-0.07857142857142208</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="4">
@@ -4613,6 +5413,12 @@
       <c r="D4" t="n">
         <v>1.5</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4621,13 +5427,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3000000000000682</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.06666666666668182</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +5449,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3899999999999935</v>
+        <v>0.3499999999999943</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06499999999999891</v>
+        <v>0.05833333333333238</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -4653,13 +5471,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.54999999999973</v>
+        <v>10.14999999999964</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.109999999999945</v>
+        <v>2.029999999999927</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4669,13 +5493,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6000000000003638</v>
+        <v>-0.1999999999995907</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1200000000000728</v>
+        <v>-0.03999999999991814</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -4685,13 +5515,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.120000000000033</v>
+        <v>-0.07999999999995566</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02400000000000659</v>
+        <v>-0.01599999999999113</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="10">
@@ -4709,6 +5545,12 @@
       <c r="D10" t="n">
         <v>0.009999999999999431</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4717,13 +5559,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06000000000000227</v>
+        <v>-0.09500000000000597</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01500000000000057</v>
+        <v>-0.02375000000000149</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4733,13 +5581,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1500000000000057</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03750000000000142</v>
+        <v>0.02250000000000085</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
@@ -4749,13 +5603,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3199999999999932</v>
+        <v>-0.1399999999999864</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07999999999999829</v>
+        <v>-0.03499999999999659</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="14">
@@ -4765,13 +5625,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3400000000000034</v>
+        <v>0.3599999999999994</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08500000000000085</v>
+        <v>0.08999999999999986</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -4781,13 +5647,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3100000000000023</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07750000000000057</v>
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="16">
@@ -4805,6 +5677,12 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4813,13 +5691,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6399999999999295</v>
+        <v>-1.440000000000055</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2133333333333098</v>
+        <v>-0.4800000000000182</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.3799999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="18">
@@ -4837,6 +5721,12 @@
       <c r="D18" t="n">
         <v>0.0002400000000000041</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4853,6 +5743,12 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4867,6 +5763,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
